--- a/biology/Zoologie/Campagnol_souterrain/Campagnol_souterrain.xlsx
+++ b/biology/Zoologie/Campagnol_souterrain/Campagnol_souterrain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microtus subterraneus
 Le Campagnol souterrain (Microtus subterraneus) est une espèce de rongeurs de la famille des Cricétidés.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve en Europe et en Asie mineure. Il vit dans les zones boisées de conifères et de feuillus, dans les prairies, dans les pâturages et dans les zones rocheuses des montagnes. Il tolère aussi bien l'humidité que l'aridité[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve en Europe et en Asie mineure. Il vit dans les zones boisées de conifères et de feuillus, dans les prairies, dans les pâturages et dans les zones rocheuses des montagnes. Il tolère aussi bien l'humidité que l'aridité.
 </t>
         </is>
       </c>
@@ -569,9 +585,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Synonymes selon l'INPN[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Synonymes selon l'INPN :
 Arvicola subterraneus de Sélys-Longchamps, 1836
 Microtus incertus (de Sélys-Longchamps, 1841)
 Microtus subterraneus capucinus Miller, 1908
